--- a/ER Model/Book.xlsx
+++ b/ER Model/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\FPT Aptech\T2207E_Database Management with SQL Server\ER Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F3184-A414-4351-989C-19D26047B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D33542-86C4-43BD-9133-41B129BA0E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90793798-E385-4898-A269-067C5C226557}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3210,8 +3218,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9600076" y="2965622"/>
-          <a:ext cx="277091" cy="310041"/>
+          <a:off x="9390244" y="2990491"/>
+          <a:ext cx="277091" cy="311595"/>
           <a:chOff x="22305818" y="4170218"/>
           <a:chExt cx="277091" cy="304800"/>
         </a:xfrm>
@@ -3315,8 +3323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="7955880" y="3918590"/>
-          <a:ext cx="282334" cy="313038"/>
+          <a:off x="7780244" y="3959002"/>
+          <a:ext cx="283888" cy="299049"/>
           <a:chOff x="22305818" y="4170218"/>
           <a:chExt cx="277091" cy="304800"/>
         </a:xfrm>
@@ -3771,8 +3779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="11015213">
-          <a:off x="14556632" y="8197022"/>
-          <a:ext cx="285329" cy="310043"/>
+          <a:off x="14234890" y="8265412"/>
+          <a:ext cx="271340" cy="311597"/>
           <a:chOff x="22305818" y="4170218"/>
           <a:chExt cx="277091" cy="304800"/>
         </a:xfrm>
@@ -4165,8 +4173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="7900462" y="7241059"/>
-          <a:ext cx="282333" cy="313038"/>
+          <a:off x="7724826" y="7309448"/>
+          <a:ext cx="283887" cy="299049"/>
           <a:chOff x="22305818" y="4170218"/>
           <a:chExt cx="277091" cy="304800"/>
         </a:xfrm>
@@ -4533,8 +4541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="15284186" y="7113747"/>
-          <a:ext cx="287575" cy="313038"/>
+          <a:off x="14939907" y="7181359"/>
+          <a:ext cx="290683" cy="299049"/>
           <a:chOff x="22305818" y="4170218"/>
           <a:chExt cx="277091" cy="304800"/>
         </a:xfrm>
@@ -4753,6 +4761,1879 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="9171710" y="3920836"/>
           <a:ext cx="484909" cy="13855"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>14378</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>183042</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Freeform: Shape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13C9425-61EA-465F-BC0C-7251700DD27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26583736" y="4543246"/>
+          <a:ext cx="2584061" cy="1600903"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1428749"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 857250"/>
+            <a:gd name="connsiteX1" fmla="*/ 1428749 w 1428749"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 857250"/>
+            <a:gd name="connsiteX2" fmla="*/ 1428749 w 1428749"/>
+            <a:gd name="connsiteY2" fmla="*/ 857250 h 857250"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1428749"/>
+            <a:gd name="connsiteY3" fmla="*/ 857250 h 857250"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1428749"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 857250"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1428749" h="857250">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1428749" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1428749" y="857250"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="857250"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="80000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="148590" tIns="148590" rIns="148590" bIns="148590" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1733550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" kern="1200"/>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>330680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>334801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Freeform: Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2042A943-C46A-4CED-8D24-7C53B02DEB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24484642" y="4068792"/>
+          <a:ext cx="1211819" cy="1239065"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+            <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+            <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="760809" h="760809">
+              <a:moveTo>
+                <a:pt x="0" y="380405"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="170313"/>
+                <a:pt x="170313" y="0"/>
+                <a:pt x="380405" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="590497" y="0"/>
+                <a:pt x="760810" y="170313"/>
+                <a:pt x="760810" y="380405"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="760810" y="590497"/>
+                <a:pt x="590497" y="760810"/>
+                <a:pt x="380405" y="760810"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170313" y="760810"/>
+                <a:pt x="0" y="590497"/>
+                <a:pt x="0" y="380405"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>Full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200" baseline="0"/>
+            <a:t> name</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>339306</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>343427</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Freeform: Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0777BCE3-4606-4AA7-A391-0283C51C34C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24493268" y="2725948"/>
+          <a:ext cx="1211819" cy="1239065"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+            <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+            <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="760809" h="760809">
+              <a:moveTo>
+                <a:pt x="0" y="380405"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="170313"/>
+                <a:pt x="170313" y="0"/>
+                <a:pt x="380405" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="590497" y="0"/>
+                <a:pt x="760810" y="170313"/>
+                <a:pt x="760810" y="380405"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="760810" y="590497"/>
+                <a:pt x="590497" y="760810"/>
+                <a:pt x="380405" y="760810"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170313" y="760810"/>
+                <a:pt x="0" y="590497"/>
+                <a:pt x="0" y="380405"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>Id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1700" kern="1200"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>333554</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>337675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>178016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Freeform: Shape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524BDC6B-2E5F-44AD-BFE3-5E5E772ABC25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24487516" y="5480649"/>
+          <a:ext cx="1211819" cy="1239065"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+            <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+            <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="760809" h="760809">
+              <a:moveTo>
+                <a:pt x="0" y="380405"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="170313"/>
+                <a:pt x="170313" y="0"/>
+                <a:pt x="380405" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="590497" y="0"/>
+                <a:pt x="760810" y="170313"/>
+                <a:pt x="760810" y="380405"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="760810" y="590497"/>
+                <a:pt x="590497" y="760810"/>
+                <a:pt x="380405" y="760810"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170313" y="760810"/>
+                <a:pt x="0" y="590497"/>
+                <a:pt x="0" y="380405"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>Address</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>370937</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>375058</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Freeform: Shape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C85FA30-AE70-4DDC-86B2-725938B6E573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24524899" y="6826371"/>
+          <a:ext cx="1211819" cy="1239065"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+            <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+            <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+            <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+            <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+            <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="760809" h="760809">
+              <a:moveTo>
+                <a:pt x="0" y="380405"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="170313"/>
+                <a:pt x="170313" y="0"/>
+                <a:pt x="380405" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="590497" y="0"/>
+                <a:pt x="760810" y="170313"/>
+                <a:pt x="760810" y="380405"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="760810" y="590497"/>
+                <a:pt x="590497" y="760810"/>
+                <a:pt x="380405" y="760810"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170313" y="760810"/>
+                <a:pt x="0" y="590497"/>
+                <a:pt x="0" y="380405"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1700" kern="1200"/>
+            <a:t>Birthday</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>230037</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>14378</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938B145-A38B-427A-9EBD-3BBE69E709FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25591697" y="3723735"/>
+          <a:ext cx="992039" cy="1538378"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>215661</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CACC8E-5148-482C-9ED3-6F82F5DBDE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25577321" y="5262113"/>
+          <a:ext cx="992037" cy="1782793"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>195532</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>589472</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF727739-E4BE-4034-BB8E-2165319EAE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25557192" y="5218981"/>
+          <a:ext cx="997789" cy="540589"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>276046</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E7F561-E017-4D30-B3A2-996994D612EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25637706" y="4948687"/>
+          <a:ext cx="931652" cy="284671"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>421063</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175139</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="Group 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96A23F1-F358-CB60-7A5A-2E8CEF0A6489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="32780377" y="3738113"/>
+          <a:ext cx="6287026" cy="2978724"/>
+          <a:chOff x="29976793" y="3723736"/>
+          <a:chExt cx="6287026" cy="2978724"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Freeform: Shape 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F5FAD7-43C5-42D4-8249-397C3F6D7277}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="31414528" y="4528867"/>
+            <a:ext cx="2584061" cy="1600903"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1428749"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 857250"/>
+              <a:gd name="connsiteX1" fmla="*/ 1428749 w 1428749"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 857250"/>
+              <a:gd name="connsiteX2" fmla="*/ 1428749 w 1428749"/>
+              <a:gd name="connsiteY2" fmla="*/ 857250 h 857250"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1428749"/>
+              <a:gd name="connsiteY3" fmla="*/ 857250 h 857250"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1428749"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 857250"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1428749" h="857250">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1428749" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1428749" y="857250"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="857250"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="148590" tIns="148590" rIns="148590" bIns="148590" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1733550">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" kern="1200"/>
+              <a:t>Contact</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Freeform: Shape 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E6C775-A5A0-4CF4-B1CC-DB37DAB7E57D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="35052000" y="5463395"/>
+            <a:ext cx="1211819" cy="1239065"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+              <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+              <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+              <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+              <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+              <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+              <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+              <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="760809" h="760809">
+                <a:moveTo>
+                  <a:pt x="0" y="380405"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="170313"/>
+                  <a:pt x="170313" y="0"/>
+                  <a:pt x="380405" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="590497" y="0"/>
+                  <a:pt x="760810" y="170313"/>
+                  <a:pt x="760810" y="380405"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="760810" y="590497"/>
+                  <a:pt x="590497" y="760810"/>
+                  <a:pt x="380405" y="760810"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="170313" y="760810"/>
+                  <a:pt x="0" y="590497"/>
+                  <a:pt x="0" y="380405"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:alpha val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:alpha val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" kern="1200"/>
+              <a:t>Phone</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" kern="1200"/>
+              <a:t>Number</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Freeform: Shape 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5510AB-CB6C-448C-B29D-520D9DFC08B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="34994491" y="3723736"/>
+            <a:ext cx="1211819" cy="1239065"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 760809"/>
+              <a:gd name="connsiteY0" fmla="*/ 380405 h 760809"/>
+              <a:gd name="connsiteX1" fmla="*/ 380405 w 760809"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 760809"/>
+              <a:gd name="connsiteX2" fmla="*/ 760810 w 760809"/>
+              <a:gd name="connsiteY2" fmla="*/ 380405 h 760809"/>
+              <a:gd name="connsiteX3" fmla="*/ 380405 w 760809"/>
+              <a:gd name="connsiteY3" fmla="*/ 760810 h 760809"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 760809"/>
+              <a:gd name="connsiteY4" fmla="*/ 380405 h 760809"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="760809" h="760809">
+                <a:moveTo>
+                  <a:pt x="0" y="380405"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="170313"/>
+                  <a:pt x="170313" y="0"/>
+                  <a:pt x="380405" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="590497" y="0"/>
+                  <a:pt x="760810" y="170313"/>
+                  <a:pt x="760810" y="380405"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="760810" y="590497"/>
+                  <a:pt x="590497" y="760810"/>
+                  <a:pt x="380405" y="760810"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="170313" y="760810"/>
+                  <a:pt x="0" y="590497"/>
+                  <a:pt x="0" y="380405"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:alpha val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:alpha val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133008" tIns="133008" rIns="133008" bIns="133008" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" kern="1200"/>
+              <a:t>Id</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1700" kern="1200"/>
+              <a:t>(PK)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Straight Connector 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856514E4-F8C6-4787-96A8-B46BB20EC3AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="29976793" y="5377132"/>
+            <a:ext cx="1408981" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="Straight Connector 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F382746-E926-4BDE-B8E3-A1810BB04289}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="38" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="34016830" y="5334000"/>
+            <a:ext cx="1035170" cy="748928"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="Straight Connector 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996CB7BF-128A-4E43-806A-3B7B2CAF2088}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="33996701" y="4514491"/>
+            <a:ext cx="1040922" cy="770626"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="Group 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C65F77-EF28-43EB-B871-CA4BB4E40C4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="11015213">
+            <a:off x="31126981" y="5218982"/>
+            <a:ext cx="271340" cy="311597"/>
+            <a:chOff x="22305818" y="4170218"/>
+            <a:chExt cx="277091" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="80" name="Straight Connector 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D266A5-644C-CFD9-0FBB-DB817C32EC29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="22305818" y="4170218"/>
+              <a:ext cx="277091" cy="138546"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="81" name="Straight Connector 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B16E58-7542-B24C-1AC3-63A846034DED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="22319673" y="4308764"/>
+              <a:ext cx="263236" cy="166254"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="Oval 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E746355-6AB7-403E-87E2-B5833F9523B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30839435" y="5233358"/>
+            <a:ext cx="243632" cy="242325"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>416944</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>535884</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Diamond 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BAF1D1-36F1-4224-A171-4ABB7A221D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31213246" y="4471358"/>
+          <a:ext cx="1930487" cy="1841348"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>   Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>186905</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>419169</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8BEE23-0687-404C-945A-921826FBD8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29171660" y="5391509"/>
+          <a:ext cx="2043811" cy="14378"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>575095</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>588949</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB2EC91-C8C6-4D6F-9246-D5DA69947578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="29559850" y="5147094"/>
+          <a:ext cx="13854" cy="491445"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>411192</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>425046</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39996</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D103B7-099B-4E72-B6FF-017D27E657EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="29395947" y="5155721"/>
+          <a:ext cx="13854" cy="491445"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5075,14 +6956,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B756A46E-BA56-4DAB-A29D-11C058B453D8}">
-  <dimension ref="A1"/>
+  <dimension ref="BB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="V10" zoomScale="53" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="AU53" sqref="AU53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="48" spans="54:54" x14ac:dyDescent="0.3">
+      <c r="BB48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
